--- a/popgen/Short list for new popgen.xlsx
+++ b/popgen/Short list for new popgen.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\Documents\GitHub\wingproj\popgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42FC0C1-8DA5-4287-9675-7718F1777B6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{138C4CDE-0D1D-4C2E-8592-D65FD82B2DB1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{138C4CDE-0D1D-4C2E-8592-D65FD82B2DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="302">
   <si>
     <t>AM_L_1</t>
   </si>
@@ -253,6 +254,684 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Seq ID</t>
+  </si>
+  <si>
+    <t>AC20</t>
+  </si>
+  <si>
+    <t>ES20</t>
+  </si>
+  <si>
+    <t>AP21</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PR28</t>
+  </si>
+  <si>
+    <t>RO23</t>
+  </si>
+  <si>
+    <t>TO12, TO1, TO7, TO5</t>
+  </si>
+  <si>
+    <t>RJ01, RJ02</t>
+  </si>
+  <si>
+    <t>BC1</t>
+  </si>
+  <si>
+    <t>MG01, MG02, MG09</t>
+  </si>
+  <si>
+    <t>SINOPMT40</t>
+  </si>
+  <si>
+    <t>SP141</t>
+  </si>
+  <si>
+    <t>SP69, SP66, SP73</t>
+  </si>
+  <si>
+    <t>AC20-12.bam</t>
+  </si>
+  <si>
+    <t>AC20-12.bam.bai</t>
+  </si>
+  <si>
+    <t>AC20-3.bam</t>
+  </si>
+  <si>
+    <t>AC20-3.bam.bai</t>
+  </si>
+  <si>
+    <t>AC20-9.bam</t>
+  </si>
+  <si>
+    <t>AC20-9.bam.bai</t>
+  </si>
+  <si>
+    <t>AC20.bam</t>
+  </si>
+  <si>
+    <t>AC20.bam.bai</t>
+  </si>
+  <si>
+    <t>AC20b.bam</t>
+  </si>
+  <si>
+    <t>AC20b.bam.bai</t>
+  </si>
+  <si>
+    <t>AC20c.bam</t>
+  </si>
+  <si>
+    <t>AC20c.bam.bai</t>
+  </si>
+  <si>
+    <t>alignments.log</t>
+  </si>
+  <si>
+    <t>AP21-12.bam</t>
+  </si>
+  <si>
+    <t>AP21-12.bam.bai</t>
+  </si>
+  <si>
+    <t>AP21-19.bam</t>
+  </si>
+  <si>
+    <t>AP21-19.bam.bai</t>
+  </si>
+  <si>
+    <t>AP21-2-100.bam</t>
+  </si>
+  <si>
+    <t>AP21-2-100.bam.bai</t>
+  </si>
+  <si>
+    <t>AP21-23.bam</t>
+  </si>
+  <si>
+    <t>AP21-23.bam.bai</t>
+  </si>
+  <si>
+    <t>AP21-7.bam</t>
+  </si>
+  <si>
+    <t>AP21-7.bam.bai</t>
+  </si>
+  <si>
+    <t>APR14.bam</t>
+  </si>
+  <si>
+    <t>APR18.bam</t>
+  </si>
+  <si>
+    <t>APR19.bam</t>
+  </si>
+  <si>
+    <t>APR2.bam</t>
+  </si>
+  <si>
+    <t>APR33.bam</t>
+  </si>
+  <si>
+    <t>APR36.bam</t>
+  </si>
+  <si>
+    <t>APR38.bam</t>
+  </si>
+  <si>
+    <t>APR3.bam</t>
+  </si>
+  <si>
+    <t>APR44.bam</t>
+  </si>
+  <si>
+    <t>APR4.bam</t>
+  </si>
+  <si>
+    <t>APR6.bam</t>
+  </si>
+  <si>
+    <t>APR7.bam</t>
+  </si>
+  <si>
+    <t>APR8.bam</t>
+  </si>
+  <si>
+    <t>ARS10.bam</t>
+  </si>
+  <si>
+    <t>ARS11.bam</t>
+  </si>
+  <si>
+    <t>ARS13.bam</t>
+  </si>
+  <si>
+    <t>ARS14.bam</t>
+  </si>
+  <si>
+    <t>ARS16.bam</t>
+  </si>
+  <si>
+    <t>ARS17.bam</t>
+  </si>
+  <si>
+    <t>ARS1.bam</t>
+  </si>
+  <si>
+    <t>ARS2.bam</t>
+  </si>
+  <si>
+    <t>ARS3.bam</t>
+  </si>
+  <si>
+    <t>ARS4.bam</t>
+  </si>
+  <si>
+    <t>ARS6.bam</t>
+  </si>
+  <si>
+    <t>ARS8.bam</t>
+  </si>
+  <si>
+    <t>ARS9.bam</t>
+  </si>
+  <si>
+    <t>BC1-1.bam</t>
+  </si>
+  <si>
+    <t>BC1-1.bam.bai</t>
+  </si>
+  <si>
+    <t>BC1-2.bam</t>
+  </si>
+  <si>
+    <t>BC1-2.bam.bai</t>
+  </si>
+  <si>
+    <t>BC1-6.bam</t>
+  </si>
+  <si>
+    <t>BC1-6.bam.bai</t>
+  </si>
+  <si>
+    <t>ES20-14-3.bam</t>
+  </si>
+  <si>
+    <t>ES20-14-3.bam.bai</t>
+  </si>
+  <si>
+    <t>ES20-2-16.bam</t>
+  </si>
+  <si>
+    <t>ES20-2-16.bam.bai</t>
+  </si>
+  <si>
+    <t>ES20-3-102.bam</t>
+  </si>
+  <si>
+    <t>ES20-3-102.bam.bai</t>
+  </si>
+  <si>
+    <t>ES20-5-8.bam</t>
+  </si>
+  <si>
+    <t>ES20-5-8.bam.bai</t>
+  </si>
+  <si>
+    <t>ES20-9-107.bam</t>
+  </si>
+  <si>
+    <t>ES20-9-107.bam.bai</t>
+  </si>
+  <si>
+    <t>MG01-4-2.bam</t>
+  </si>
+  <si>
+    <t>MG01-4-2.bam.bai</t>
+  </si>
+  <si>
+    <t>MG02-101.bam</t>
+  </si>
+  <si>
+    <t>MG02-101.bam.bai</t>
+  </si>
+  <si>
+    <t>MG09-4.bam</t>
+  </si>
+  <si>
+    <t>MG09-4.bam.bai</t>
+  </si>
+  <si>
+    <t>PA14-1-3.bam</t>
+  </si>
+  <si>
+    <t>PA14-1-3.bam.bai</t>
+  </si>
+  <si>
+    <t>PA14-2-5.bam</t>
+  </si>
+  <si>
+    <t>PA14-2-5.bam.bai</t>
+  </si>
+  <si>
+    <t>PA14-3-10.bam</t>
+  </si>
+  <si>
+    <t>PA14-3-10.bam.bai</t>
+  </si>
+  <si>
+    <t>PA14-3-15.bam</t>
+  </si>
+  <si>
+    <t>PA14-3-15.bam.bai</t>
+  </si>
+  <si>
+    <t>PA14-7-2.bam</t>
+  </si>
+  <si>
+    <t>PA14-7-2.bam.bai</t>
+  </si>
+  <si>
+    <t>PR28-10-2.bam</t>
+  </si>
+  <si>
+    <t>PR28-10-2.bam.bai</t>
+  </si>
+  <si>
+    <t>PR28-1.bam</t>
+  </si>
+  <si>
+    <t>PR28-1.bam.bai</t>
+  </si>
+  <si>
+    <t>PR28-2.bam</t>
+  </si>
+  <si>
+    <t>PR28-2.bam.bai</t>
+  </si>
+  <si>
+    <t>PR28-6.bam</t>
+  </si>
+  <si>
+    <t>PR28-6.bam.bai</t>
+  </si>
+  <si>
+    <t>PR28-8-6.bam</t>
+  </si>
+  <si>
+    <t>PR28-8-6.bam.bai</t>
+  </si>
+  <si>
+    <t>PR28-9-3.bam</t>
+  </si>
+  <si>
+    <t>PR28-9-3.bam.bai</t>
+  </si>
+  <si>
+    <t>RJ01-2-4.bam</t>
+  </si>
+  <si>
+    <t>RJ01-2-4.bam.bai</t>
+  </si>
+  <si>
+    <t>RJ01-4-5.bam</t>
+  </si>
+  <si>
+    <t>RJ01-4-5.bam.bai</t>
+  </si>
+  <si>
+    <t>RJ02-1-10.bam</t>
+  </si>
+  <si>
+    <t>RJ02-1-10.bam.bai</t>
+  </si>
+  <si>
+    <t>RJ02-11.bam</t>
+  </si>
+  <si>
+    <t>RJ02-11.bam.bai</t>
+  </si>
+  <si>
+    <t>RJ02-12.bam</t>
+  </si>
+  <si>
+    <t>RJ02-12.bam.bai</t>
+  </si>
+  <si>
+    <t>RJ02-15-14.bam</t>
+  </si>
+  <si>
+    <t>RJ02-15-14.bam.bai</t>
+  </si>
+  <si>
+    <t>RMO13.bam</t>
+  </si>
+  <si>
+    <t>RMO17.bam</t>
+  </si>
+  <si>
+    <t>RMO18.bam</t>
+  </si>
+  <si>
+    <t>RMO24.bam</t>
+  </si>
+  <si>
+    <t>RMO26.bam</t>
+  </si>
+  <si>
+    <t>RMO27.bam</t>
+  </si>
+  <si>
+    <t>RMO33.bam</t>
+  </si>
+  <si>
+    <t>RMO36.bam</t>
+  </si>
+  <si>
+    <t>RMO39.bam</t>
+  </si>
+  <si>
+    <t>RMO41.bam</t>
+  </si>
+  <si>
+    <t>RMO42.bam</t>
+  </si>
+  <si>
+    <t>RMO5.bam</t>
+  </si>
+  <si>
+    <t>RMO6.bam</t>
+  </si>
+  <si>
+    <t>RMO9.bam</t>
+  </si>
+  <si>
+    <t>RO23-10-2.bam</t>
+  </si>
+  <si>
+    <t>RO23-10-2.bam.bai</t>
+  </si>
+  <si>
+    <t>RO23-3-10.bam</t>
+  </si>
+  <si>
+    <t>RO23-3-10.bam.bai</t>
+  </si>
+  <si>
+    <t>RPV11.bam</t>
+  </si>
+  <si>
+    <t>RPV12.bam</t>
+  </si>
+  <si>
+    <t>RPV15.bam</t>
+  </si>
+  <si>
+    <t>RPV17.bam</t>
+  </si>
+  <si>
+    <t>RPV18.bam</t>
+  </si>
+  <si>
+    <t>RPV19.bam</t>
+  </si>
+  <si>
+    <t>RPV20.bam</t>
+  </si>
+  <si>
+    <t>RPV23.bam</t>
+  </si>
+  <si>
+    <t>RPV25.bam</t>
+  </si>
+  <si>
+    <t>RPV28.bam</t>
+  </si>
+  <si>
+    <t>RPV33.bam</t>
+  </si>
+  <si>
+    <t>RPV37.bam</t>
+  </si>
+  <si>
+    <t>RPV38.bam</t>
+  </si>
+  <si>
+    <t>RPV42.bam</t>
+  </si>
+  <si>
+    <t>SINOPMT40-77b.bam</t>
+  </si>
+  <si>
+    <t>SINOPMT40-77b.bam.bai</t>
+  </si>
+  <si>
+    <t>SINOPMT40-78d.bam</t>
+  </si>
+  <si>
+    <t>SINOPMT40-78d.bam.bai</t>
+  </si>
+  <si>
+    <t>SJU10.bam</t>
+  </si>
+  <si>
+    <t>SJU11.bam</t>
+  </si>
+  <si>
+    <t>SJU12.bam</t>
+  </si>
+  <si>
+    <t>SJU13.bam</t>
+  </si>
+  <si>
+    <t>SJU1.bam</t>
+  </si>
+  <si>
+    <t>SJU2.bam</t>
+  </si>
+  <si>
+    <t>SJU3.bam</t>
+  </si>
+  <si>
+    <t>SJU4.bam</t>
+  </si>
+  <si>
+    <t>SJU5.bam</t>
+  </si>
+  <si>
+    <t>SJU6.bam</t>
+  </si>
+  <si>
+    <t>SJU7.bam</t>
+  </si>
+  <si>
+    <t>SJU8.bam</t>
+  </si>
+  <si>
+    <t>SJU9.bam</t>
+  </si>
+  <si>
+    <t>SP141-13-14.bam</t>
+  </si>
+  <si>
+    <t>SP141-13-14.bam.bai</t>
+  </si>
+  <si>
+    <t>SP141-1-7.bam</t>
+  </si>
+  <si>
+    <t>SP141-1-7.bam.bai</t>
+  </si>
+  <si>
+    <t>SP141-2-1.bam</t>
+  </si>
+  <si>
+    <t>SP141-2-1.bam.bai</t>
+  </si>
+  <si>
+    <t>SP141-4-17.bam</t>
+  </si>
+  <si>
+    <t>SP141-4-17.bam.bai</t>
+  </si>
+  <si>
+    <t>SP66-9-18.bam</t>
+  </si>
+  <si>
+    <t>SP66-9-18.bam.bai</t>
+  </si>
+  <si>
+    <t>SP69-1-1.bam</t>
+  </si>
+  <si>
+    <t>SP69-1-1.bam.bai</t>
+  </si>
+  <si>
+    <t>SP69-2-7.bam</t>
+  </si>
+  <si>
+    <t>SP69-2-7.bam.bai</t>
+  </si>
+  <si>
+    <t>SP69-3-12.bam</t>
+  </si>
+  <si>
+    <t>SP69-3-12.bam.bai</t>
+  </si>
+  <si>
+    <t>SP73-16-25.bam</t>
+  </si>
+  <si>
+    <t>SP73-16-25.bam.bai</t>
+  </si>
+  <si>
+    <t>TLC52.bam</t>
+  </si>
+  <si>
+    <t>TLC53.bam</t>
+  </si>
+  <si>
+    <t>TLC70.bam</t>
+  </si>
+  <si>
+    <t>TLC71.bam</t>
+  </si>
+  <si>
+    <t>TLC73.bam</t>
+  </si>
+  <si>
+    <t>TLC74.bam</t>
+  </si>
+  <si>
+    <t>TLC75.bam</t>
+  </si>
+  <si>
+    <t>TLC76.bam</t>
+  </si>
+  <si>
+    <t>TLC77.bam</t>
+  </si>
+  <si>
+    <t>TLC78.bam</t>
+  </si>
+  <si>
+    <t>TLC79.bam</t>
+  </si>
+  <si>
+    <t>TLC81.bam</t>
+  </si>
+  <si>
+    <t>TLC82.bam</t>
+  </si>
+  <si>
+    <t>TLC83.bam</t>
+  </si>
+  <si>
+    <t>TO12-21-2.bam</t>
+  </si>
+  <si>
+    <t>TO12-21-2.bam.bai</t>
+  </si>
+  <si>
+    <t>TO12-3-4.bam</t>
+  </si>
+  <si>
+    <t>TO12-3-4.bam.bai</t>
+  </si>
+  <si>
+    <t>TO1-2-5.bam</t>
+  </si>
+  <si>
+    <t>TO1-2-5.bam.bai</t>
+  </si>
+  <si>
+    <t>TO12-7-6.bam</t>
+  </si>
+  <si>
+    <t>TO12-7-6.bam.bai</t>
+  </si>
+  <si>
+    <t>TO5-3-6.bam</t>
+  </si>
+  <si>
+    <t>TO5-3-6.bam.bai</t>
+  </si>
+  <si>
+    <t>TO7-8.bam</t>
+  </si>
+  <si>
+    <t>TO7-8.bam.bai</t>
+  </si>
+  <si>
+    <t>TPN11.bam</t>
+  </si>
+  <si>
+    <t>TPN12.bam</t>
+  </si>
+  <si>
+    <t>TPN13.bam</t>
+  </si>
+  <si>
+    <t>TPN14.bam</t>
+  </si>
+  <si>
+    <t>TPN16.bam</t>
+  </si>
+  <si>
+    <t>TPN17.bam</t>
+  </si>
+  <si>
+    <t>TPN18.bam</t>
+  </si>
+  <si>
+    <t>TPN20.bam</t>
+  </si>
+  <si>
+    <t>TPN3.bam</t>
+  </si>
+  <si>
+    <t>TPN4.bam</t>
+  </si>
+  <si>
+    <t>TPN5.bam</t>
+  </si>
+  <si>
+    <t>TPN6.bam</t>
+  </si>
+  <si>
+    <t>TPN8.bam</t>
+  </si>
+  <si>
+    <t>TPN9.bam</t>
   </si>
 </sst>
 </file>
@@ -296,7 +975,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -319,6 +998,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -326,7 +1016,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +1054,9 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +1374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC104354-9EDB-40F2-A0DA-E555E03DDE6D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -694,6 +1389,7 @@
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="72">
@@ -733,6 +1429,9 @@
       <c r="L1" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="M1" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="P1" s="8" t="s">
         <v>63</v>
       </c>
@@ -777,6 +1476,9 @@
       <c r="L2" s="13">
         <v>38923</v>
       </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
       <c r="P2" s="9">
         <v>8</v>
       </c>
@@ -821,6 +1523,9 @@
       <c r="L3" s="13">
         <v>39866</v>
       </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
       <c r="P3" s="9">
         <v>38</v>
       </c>
@@ -865,6 +1570,9 @@
       <c r="L4" s="14">
         <v>39734</v>
       </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
       <c r="P4" s="11">
         <v>43</v>
       </c>
@@ -1041,6 +1749,9 @@
       <c r="L8" s="14">
         <v>39462</v>
       </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
       <c r="P8" s="11">
         <v>81</v>
       </c>
@@ -1129,6 +1840,9 @@
       <c r="L10" s="14">
         <v>39216</v>
       </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
       <c r="P10" s="11">
         <v>152</v>
       </c>
@@ -1173,6 +1887,9 @@
       <c r="L11" s="14">
         <v>38910</v>
       </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
       <c r="P11" s="11">
         <v>132</v>
       </c>
@@ -1217,6 +1934,9 @@
       <c r="L12" s="14">
         <v>40019</v>
       </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
       <c r="P12" s="11">
         <v>198</v>
       </c>
@@ -1349,6 +2069,9 @@
       <c r="L15" s="14">
         <v>39377</v>
       </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
       <c r="P15" s="11">
         <v>16</v>
       </c>
@@ -1393,6 +2116,9 @@
       <c r="L16" s="14">
         <v>39040</v>
       </c>
+      <c r="M16" t="s">
+        <v>86</v>
+      </c>
       <c r="P16" s="11">
         <v>551</v>
       </c>
@@ -1437,6 +2163,9 @@
       <c r="L17" s="14">
         <v>41008</v>
       </c>
+      <c r="M17" t="s">
+        <v>88</v>
+      </c>
       <c r="P17" s="11">
         <v>322</v>
       </c>
@@ -1481,6 +2210,9 @@
       <c r="L18" s="14">
         <v>39939</v>
       </c>
+      <c r="M18" t="s">
+        <v>89</v>
+      </c>
       <c r="P18" s="11">
         <v>445</v>
       </c>
@@ -1569,6 +2301,9 @@
       <c r="L20" s="14">
         <v>39225</v>
       </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
       <c r="P20" s="11">
         <v>16</v>
       </c>
@@ -1613,6 +2348,9 @@
       <c r="L21" s="14">
         <v>39176</v>
       </c>
+      <c r="M21" t="s">
+        <v>81</v>
+      </c>
       <c r="P21" s="11">
         <v>272</v>
       </c>
@@ -1621,10 +2359,1547 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:N21">
-    <sortCondition descending="1" ref="J2"/>
+  <sortState ref="A2:M21">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE7EAF-0121-4E0E-A0DC-2250AD12347E}">
+  <dimension ref="A1:B212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B153" sqref="B1:B153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>214</v>
+      </c>
+      <c r="B125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>217</v>
+      </c>
+      <c r="B128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>218</v>
+      </c>
+      <c r="B129" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>224</v>
+      </c>
+      <c r="B135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>227</v>
+      </c>
+      <c r="B138" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>228</v>
+      </c>
+      <c r="B139" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>231</v>
+      </c>
+      <c r="B142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>238</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+      <c r="B152" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>